--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\datasets\cardekho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655838D7-3628-4EE1-8D3A-BF71D7617296}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8DBC7D-9A4B-4C1E-B6DC-9861A06AEAB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51302A7A-2681-4454-A993-5EE402E98F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>business</t>
   </si>
@@ -57,21 +57,12 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
     <t>production</t>
   </si>
   <si>
     <t>senior mlr content manager</t>
   </si>
   <si>
-    <t>Los Angles</t>
-  </si>
-  <si>
     <t>senior medical copy editor</t>
   </si>
   <si>
@@ -87,20 +78,20 @@
     <t>campaign type</t>
   </si>
   <si>
-    <t>average salary per annum</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t>cost of living</t>
+    <t>health care professional</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +104,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="33"/>
@@ -181,27 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,42 +482,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F701344-AD71-4D2B-985A-B6455CF18C78}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:4" ht="41.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -561,17 +519,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="41.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -581,17 +533,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="41.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -601,17 +547,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -621,17 +561,11 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <v>80452</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9">
-        <v>77.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -641,17 +575,11 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
-        <v>39600</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
-        <v>77.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:4" ht="41.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -661,17 +589,11 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>49928</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:4" ht="41.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -681,74 +603,50 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>64495</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
-        <v>69218</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9">
-        <v>77.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>61653</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9">
-        <v>77.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="41.25" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>51649</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9">
-        <v>77.66</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
